--- a/test_results/19_24_058.xlsx
+++ b/test_results/19_24_058.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="82">
   <si>
     <t>METU</t>
   </si>
@@ -2021,7 +2021,9 @@
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E9" s="3" t="s">
         <v>6</v>
       </c>
